--- a/src/main/resources/ExcelFileArcticByte.xlsx
+++ b/src/main/resources/ExcelFileArcticByte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobhallenborg/Java/SYSB23/Database-Project-Assignment-GR3/ht24-sysb23-ht24-sysb23-hackstreetboys/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{582283E7-9375-3A44-973E-B6AA41BA3CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06F90EC-8753-4640-89A4-92D9A15F0368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17860" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{F0111CEF-5A01-7744-BA1E-C7EB36BE0D8A}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="2" xr2:uid="{F0111CEF-5A01-7744-BA1E-C7EB36BE0D8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Consultant" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Milestone" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Consultant!$A$1:$D$33</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Milestone!$A$1:$E$21</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Project!$A$1:$E$11</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Milestone!$A$1:$E$14</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Project!$A$1:$E$9</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">Consultant!$D$67:$G$87</definedName>
+    <definedName name="ExternalData_3" localSheetId="0" hidden="1">Consultant!$A$1:$D$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,20 +45,23 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{C62823A0-4972-DB4F-9FA6-F23054D21E6D}" name="Connection" type="1" refreshedVersion="8" background="1" saveData="1">
-    <dbPr connection="DRIVER=SQL Server;SERVER=135.225.58.242;UID=excel_reader;APP=Microsoft Excel;WSID=AirsomthorJacob;DATABASE=ArcticByte;" command="SELECT*_x000a_FROM Consultant;_x000a_"/>
+  <connection id="1" xr16:uid="{2DB0DBD5-3A70-C84D-8B02-79219DB0238F}" name="Connection" type="1" refreshedVersion="8" background="1" saveData="1">
+    <dbPr connection="DRIVER=SQL Server;SERVER=135.225.58.242;UID=sa;APP=Microsoft Excel;WSID=AirsomthorJacob;DATABASE=ArcticByte;" command="SELECT * FROM ArcticByte.dbo.Consultant;"/>
   </connection>
-  <connection id="2" xr16:uid="{779D8C6C-9513-6E47-99E4-367B58271347}" name="Connection1" type="1" refreshedVersion="8" background="1" saveData="1">
-    <dbPr connection="DRIVER=SQL Server;SERVER=135.225.58.242;UID=excel_reader;APP=Microsoft Excel;WSID=AirsomthorJacob;DATABASE=ArcticByte;" command="SELECT*_x000a_FROM Project;"/>
+  <connection id="2" xr16:uid="{325E95E3-46DB-2640-B6E2-D461473BDE85}" name="Connection1" type="1" refreshedVersion="8" background="1" saveData="1">
+    <dbPr connection="DRIVER=SQL Server;SERVER=135.225.58.242;UID=sa;APP=Microsoft Excel;WSID=AirsomthorJacob;DATABASE=ArcticByte;" command="SELECT * FROM ArcticByte.dbo.Project;"/>
   </connection>
-  <connection id="3" xr16:uid="{1C477DDE-3BC9-7D4E-BDD2-89239CF5F95E}" name="Connection2" type="1" refreshedVersion="8" background="1" saveData="1">
-    <dbPr connection="DRIVER=SQL Server;SERVER=135.225.58.242;UID=excel_reader;APP=Microsoft Excel;WSID=AirsomthorJacob;DATABASE=ArcticByte;" command="SELECT*_x000a_FROM Milestone;"/>
+  <connection id="3" xr16:uid="{2CBCABBB-55D5-3D49-8989-BC4DEDA561C0}" name="Connection2" type="1" refreshedVersion="8" background="1" saveData="1">
+    <dbPr connection="DRIVER=SQL Server;SERVER=135.225.58.242;UID=sa;APP=Microsoft Excel;WSID=AirsomthorJacob;DATABASE=ArcticByte;" command="SELECT* FROM Milestone;"/>
+  </connection>
+  <connection id="4" xr16:uid="{9CC6AEA8-8C99-8243-AB93-0AED25A14119}" name="Connection3" type="1" refreshedVersion="8" background="1" saveData="1">
+    <dbPr connection="DRIVER=SQL Server;SERVER=135.225.58.242;UID=sa;APP=Microsoft Excel;WSID=AirsomthorJacob;DATABASE=ArcticByte;" command="SELECT * FROM ArcticByte.dbo.Consultant;"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="126">
   <si>
     <t>ConsultantID</t>
   </si>
@@ -74,270 +78,75 @@
     <t>E2</t>
   </si>
   <si>
-    <t>Junior systemutvecklare</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
     <t>E3</t>
   </si>
   <si>
-    <t>IT-konsult</t>
-  </si>
-  <si>
-    <t>Johan</t>
-  </si>
-  <si>
     <t>E4</t>
   </si>
   <si>
-    <t>Projektledare</t>
-  </si>
-  <si>
-    <t>Erik</t>
-  </si>
-  <si>
     <t>E5</t>
   </si>
   <si>
-    <t>Junior utvecklare</t>
-  </si>
-  <si>
     <t>Anna</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>Databasadministratör</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
     <t>E7</t>
   </si>
   <si>
-    <t>Senior projektledare</t>
-  </si>
-  <si>
-    <t>Oskar</t>
-  </si>
-  <si>
     <t>E8</t>
   </si>
   <si>
-    <t>Teknisk specialist</t>
-  </si>
-  <si>
-    <t>Emelie</t>
-  </si>
-  <si>
     <t>E10</t>
   </si>
   <si>
-    <t>Senior utvecklare</t>
-  </si>
-  <si>
-    <t>Karin</t>
-  </si>
-  <si>
     <t>E11</t>
   </si>
   <si>
-    <t>Junior tekniker</t>
-  </si>
-  <si>
-    <t>Fredrik</t>
-  </si>
-  <si>
     <t>E12</t>
   </si>
   <si>
-    <t>Infrastrukturkonsult</t>
-  </si>
-  <si>
-    <t>Elin</t>
-  </si>
-  <si>
     <t>E13</t>
   </si>
   <si>
-    <t>Senior säkerhetsexpert</t>
-  </si>
-  <si>
-    <t>Per</t>
-  </si>
-  <si>
     <t>E14</t>
   </si>
   <si>
-    <t>Junior supporttekniker</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
     <t>E15</t>
   </si>
   <si>
-    <t>Nätverksspecialist</t>
-  </si>
-  <si>
-    <t>Henrik</t>
-  </si>
-  <si>
     <t>E16</t>
   </si>
   <si>
-    <t>Senior affärsutvecklare</t>
-  </si>
-  <si>
-    <t>Ingrid</t>
-  </si>
-  <si>
     <t>E17</t>
   </si>
   <si>
-    <t>Junior IT-konsult</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
     <t>E18</t>
   </si>
   <si>
-    <t>Testledare</t>
-  </si>
-  <si>
-    <t>Eva</t>
-  </si>
-  <si>
     <t>E19</t>
   </si>
   <si>
-    <t>IT-strateg</t>
-  </si>
-  <si>
-    <t>Lars</t>
-  </si>
-  <si>
-    <t>E44</t>
-  </si>
-  <si>
-    <t>Tankeledare</t>
-  </si>
-  <si>
     <t>Pelle</t>
   </si>
   <si>
-    <t>E33</t>
-  </si>
-  <si>
-    <t>Tankeledarchef</t>
-  </si>
-  <si>
-    <t>Erika</t>
-  </si>
-  <si>
-    <t>E66</t>
-  </si>
-  <si>
-    <t>Ekonom</t>
-  </si>
-  <si>
-    <t>E543</t>
-  </si>
-  <si>
-    <t>StudentIntern</t>
-  </si>
-  <si>
     <t>Markus</t>
   </si>
   <si>
-    <t>E545</t>
-  </si>
-  <si>
-    <t>E3333</t>
-  </si>
-  <si>
-    <t>HR-chef</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>E999</t>
-  </si>
-  <si>
-    <t>Städare</t>
-  </si>
-  <si>
     <t>Ben</t>
   </si>
   <si>
-    <t>E342</t>
-  </si>
-  <si>
-    <t>Kockchef</t>
-  </si>
-  <si>
     <t>Gösta</t>
   </si>
   <si>
-    <t>E111</t>
-  </si>
-  <si>
-    <t>Företagare</t>
-  </si>
-  <si>
-    <t>E4477</t>
-  </si>
-  <si>
-    <t>IT arkitekt</t>
-  </si>
-  <si>
-    <t>E998</t>
-  </si>
-  <si>
-    <t>Utvecklingslärare</t>
-  </si>
-  <si>
-    <t>Håkan</t>
-  </si>
-  <si>
-    <t>E568</t>
-  </si>
-  <si>
-    <t>Intern</t>
-  </si>
-  <si>
-    <t>E2222</t>
-  </si>
-  <si>
-    <t>It UX proffs</t>
-  </si>
-  <si>
-    <t>Kallekula</t>
-  </si>
-  <si>
     <t>E1</t>
   </si>
   <si>
-    <t>Systemvetarstudent</t>
-  </si>
-  <si>
     <t>Kalle</t>
   </si>
   <si>
-    <t>E343</t>
-  </si>
-  <si>
-    <t>Systemvetare</t>
-  </si>
-  <si>
     <t>ProjectID</t>
   </si>
   <si>
@@ -356,108 +165,27 @@
     <t>P1</t>
   </si>
   <si>
-    <t>Digital omställning</t>
-  </si>
-  <si>
-    <t>2024-01-01</t>
-  </si>
-  <si>
-    <t>2024-06-01</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
-    <t>AI-implementering</t>
-  </si>
-  <si>
-    <t>2024-02-01</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
     <t>P3</t>
   </si>
   <si>
-    <t>Molnmigrering</t>
-  </si>
-  <si>
-    <t>2024-03-01</t>
-  </si>
-  <si>
-    <t>2024-08-01</t>
-  </si>
-  <si>
     <t>P4</t>
   </si>
   <si>
-    <t>Dataanalysplattform</t>
-  </si>
-  <si>
-    <t>2024-04-01</t>
-  </si>
-  <si>
-    <t>2024-09-01</t>
-  </si>
-  <si>
     <t>P5</t>
   </si>
   <si>
-    <t>Cybersecurity-uppgradering</t>
-  </si>
-  <si>
-    <t>2024-05-01</t>
-  </si>
-  <si>
-    <t>2024-10-01</t>
-  </si>
-  <si>
     <t>P6</t>
   </si>
   <si>
-    <t>E-handelsplattform</t>
-  </si>
-  <si>
-    <t>2024-11-01</t>
-  </si>
-  <si>
     <t>P7</t>
   </si>
   <si>
-    <t>Mobilapputveckling</t>
-  </si>
-  <si>
-    <t>2024-12-01</t>
-  </si>
-  <si>
     <t>P8</t>
   </si>
   <si>
-    <t>IoT-integrering</t>
-  </si>
-  <si>
-    <t>2025-01-01</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>Big Data-initiativ</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>Automatiserad testning</t>
-  </si>
-  <si>
-    <t>2025-03-01</t>
-  </si>
-  <si>
     <t>MilestoneID</t>
   </si>
   <si>
@@ -473,67 +201,244 @@
     <t>M1</t>
   </si>
   <si>
-    <t>Fas 1: Kravinsamling klar</t>
-  </si>
-  <si>
     <t>M2</t>
   </si>
   <si>
-    <t>Fas 2: Prototyp utvecklad</t>
-  </si>
-  <si>
-    <t>Fas 1: Designfas klar</t>
-  </si>
-  <si>
-    <t>Fas 2: Implementering påbörjad</t>
-  </si>
-  <si>
-    <t>Fas 1: Dataanalys startad</t>
-  </si>
-  <si>
-    <t>Fas 2: Plattform på plats</t>
-  </si>
-  <si>
-    <t>Fas 1: Säkerhetsgenomgång</t>
-  </si>
-  <si>
-    <t>Fas 2: Utveckling av funktioner</t>
-  </si>
-  <si>
-    <t>Fas 1: Infrastrukturen på plats</t>
-  </si>
-  <si>
-    <t>Fas 2: Testning påbörjad</t>
-  </si>
-  <si>
-    <t>Fas 1: Utveckling påbörjad</t>
-  </si>
-  <si>
-    <t>Fas 2: Kundtester påbörjade</t>
-  </si>
-  <si>
-    <t>Fas 1: Användarundersökningar klara</t>
-  </si>
-  <si>
-    <t>Fas 2: App beta-version släppt</t>
-  </si>
-  <si>
-    <t>Fas 1: Prototyp utvecklad</t>
-  </si>
-  <si>
-    <t>Fas 2: Integrationstester påbörjade</t>
-  </si>
-  <si>
-    <t>Fas 1: Data samlad in</t>
-  </si>
-  <si>
-    <t>Fas 2: Analys påbörjad</t>
-  </si>
-  <si>
-    <t>Fas 1: Automatiseringsramverk satt</t>
-  </si>
-  <si>
-    <t>Fas 2: Testning automatiserad</t>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Björn</t>
+  </si>
+  <si>
+    <t>Senior Developer</t>
+  </si>
+  <si>
+    <t>Bertil</t>
+  </si>
+  <si>
+    <t>Junior Developer</t>
+  </si>
+  <si>
+    <t>Diagram Consultant</t>
+  </si>
+  <si>
+    <t>Tilda</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>AI-Specialist</t>
+  </si>
+  <si>
+    <t>Gustaf</t>
+  </si>
+  <si>
+    <t>Customer Support</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>Magnus</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Gunnar</t>
+  </si>
+  <si>
+    <t>Astrid</t>
+  </si>
+  <si>
+    <t>Ronja</t>
+  </si>
+  <si>
+    <t>UX-Designer</t>
+  </si>
+  <si>
+    <t>UI-Designer</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Customer Specialist</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>IT-Support</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Digitaliseringsprojekt</t>
+  </si>
+  <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>UI-design</t>
+  </si>
+  <si>
+    <t>2024-09-27</t>
+  </si>
+  <si>
+    <t>2024-09-28</t>
+  </si>
+  <si>
+    <t>Ordersystem Grönt o Gott</t>
+  </si>
+  <si>
+    <t>2025-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orderapplikation </t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>Modellering Chen</t>
+  </si>
+  <si>
+    <t>2024-11-26</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>Utveckling personalsystem</t>
+  </si>
+  <si>
+    <t>2024-09-11</t>
+  </si>
+  <si>
+    <t>2024-11-13</t>
+  </si>
+  <si>
+    <t>Teknisk HR support</t>
+  </si>
+  <si>
+    <t>2024-10-02</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>Eget rapporteringssystem</t>
+  </si>
+  <si>
+    <t>2022-06-29</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>Nice meeting, Diagrams done</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>Avstämning</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
+    <t>Visat GUI förslag till kund</t>
+  </si>
+  <si>
+    <t>Inledande möte</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>Modellering med kund!</t>
+  </si>
+  <si>
+    <t>2024-09-24</t>
+  </si>
+  <si>
+    <t>Färdiggjort mappstruktur</t>
+  </si>
+  <si>
+    <t>Inledande planeringsmöte!</t>
+  </si>
+  <si>
+    <t>2022-07-20</t>
+  </si>
+  <si>
+    <t>Inledande möte, Insamling av krav</t>
+  </si>
+  <si>
+    <t>2022-09-08</t>
+  </si>
+  <si>
+    <t>Modellering klar</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>GUI mockups presenterade</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>2022-11-24</t>
+  </si>
+  <si>
+    <t>Utveckling Fas 1 klar!</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>Utveckling fas 2 klar!</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>Återupptagande och omstrukturering!</t>
   </si>
 </sst>
 </file>
@@ -589,7 +494,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" adjustColumnWidth="0" connectionId="1" xr16:uid="{19EC2E94-97A7-A043-9CB4-DCA953153620}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" adjustColumnWidth="0" connectionId="4" xr16:uid="{812D7B62-B76E-9C4B-BBBA-A89996DC70CB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="ConsultantID" tableColumnId="1"/>
@@ -602,7 +507,20 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" adjustColumnWidth="0" connectionId="2" xr16:uid="{E0378D5F-4671-1B42-9593-4A4BF60378E5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" adjustColumnWidth="0" connectionId="1" xr16:uid="{7BD1DE84-DF33-5D49-82F5-3422D827FD41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="5">
+    <queryTableFields count="4">
+      <queryTableField id="1" name="ConsultantID" tableColumnId="1"/>
+      <queryTableField id="2" name="EmployeeNo" tableColumnId="2"/>
+      <queryTableField id="3" name="EmployeeTitle" tableColumnId="3"/>
+      <queryTableField id="4" name="EmployeeName" tableColumnId="4"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" adjustColumnWidth="0" connectionId="2" xr16:uid="{EC6E3046-5111-CF4D-AB16-C4E19416850A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="ProjectID" tableColumnId="1"/>
@@ -615,8 +533,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" adjustColumnWidth="0" connectionId="3" xr16:uid="{90D40428-F1E8-B845-BB44-24015CD5150B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" adjustColumnWidth="0" connectionId="3" xr16:uid="{B622C001-70DC-FC4A-B09D-D37A05FC12E7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="MilestoneID" tableColumnId="1"/>
@@ -630,41 +548,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62543B8B-773E-C041-83A6-4F43E19288A8}" name="Consultants" displayName="Consultants" ref="A1:D33" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D33" xr:uid="{62543B8B-773E-C041-83A6-4F43E19288A8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{94917C29-C0F4-DF4E-9CBE-F066117BE92E}" name="Table_ExternalData_2" displayName="Table_ExternalData_2" ref="D67:G87" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="D67:G87" xr:uid="{94917C29-C0F4-DF4E-9CBE-F066117BE92E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{99E6BF9A-5C71-B34A-B764-DA70673B5D05}" uniqueName="1" name="ConsultantID" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{792A36F3-B5EA-9D4E-AF3C-A305028AE1C1}" uniqueName="2" name="EmployeeNo" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{CC3D29CE-68D5-C14E-9E7C-67D62C3A783B}" uniqueName="3" name="EmployeeTitle" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{B782D410-3A8E-2541-A965-90B184F7E90E}" uniqueName="4" name="EmployeeName" queryTableFieldId="4"/>
+    <tableColumn id="1" xr3:uid="{969E4080-4052-354B-A41A-C161524553C0}" uniqueName="1" name="ConsultantID" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{EF9DE380-26BB-E24C-8B70-6B743D0EC83F}" uniqueName="2" name="EmployeeNo" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{1E8ECF16-8D98-4841-9A62-0D85F70EB40C}" uniqueName="3" name="EmployeeTitle" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{53A685E2-E4DB-CA48-8CB5-B855C08C208E}" uniqueName="4" name="EmployeeName" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6C0092C-90C1-3146-BE1B-C83A2E1A459E}" name="Project" displayName="Project" ref="A1:E11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E11" xr:uid="{C6C0092C-90C1-3146-BE1B-C83A2E1A459E}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7809FE94-B378-F045-936A-35DF5E7E615E}" uniqueName="1" name="ProjectID" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{6C844095-6EE9-F54B-90F6-9A038B2386A9}" uniqueName="2" name="ProjectNo" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{19B03B91-C7CE-7E4D-9194-05F270C3C421}" uniqueName="3" name="ProjectName" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{1E126447-0E1F-9440-8778-DD0E25EED6D1}" uniqueName="4" name="StartDate" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{29552D48-48BE-C348-A415-5A4AF9B45C8B}" uniqueName="5" name="EndDate" queryTableFieldId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{831CEC0C-CBC0-5C4D-B454-AA27B3C03C43}" name="Table_ExternalData_3" displayName="Table_ExternalData_3" ref="A1:D21" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D21" xr:uid="{831CEC0C-CBC0-5C4D-B454-AA27B3C03C43}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CABF83B5-7AE3-8E4C-87DA-8708C4FB30DA}" uniqueName="1" name="ConsultantID" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{A4BC1974-4433-1C40-9D58-37BE450935A6}" uniqueName="2" name="EmployeeNo" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{0A128F3B-CEE5-6C4E-8C4A-B7BC4C1E3810}" uniqueName="3" name="EmployeeTitle" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{C3AD896B-73A8-A842-B19D-91261A2BF962}" uniqueName="4" name="EmployeeName" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{63099A6A-6F11-C64C-9097-644F6A20BF93}" name="Milestone" displayName="Milestone" ref="A1:E21" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E21" xr:uid="{63099A6A-6F11-C64C-9097-644F6A20BF93}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0FA89146-E9B9-0348-A76D-F38297C983E0}" name="Table_ExternalData_1" displayName="Table_ExternalData_1" ref="A1:E9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E9" xr:uid="{0FA89146-E9B9-0348-A76D-F38297C983E0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{82430C10-A829-3F4B-A329-1D1EC87E826B}" uniqueName="1" name="MilestoneID" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{FB2C44B6-9212-F84C-A112-557BC59C9C7D}" uniqueName="2" name="MilestoneNo" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{019503F2-2100-C640-B158-94CA659B4CDB}" uniqueName="3" name="ProjectID" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{B3A9E93E-B89A-2A4E-83B4-4A547A37EE53}" uniqueName="4" name="MilestoneDate" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{813A759E-F074-D644-9A88-4B5CFF9B5862}" uniqueName="5" name="MilestoneDescription" queryTableFieldId="5"/>
+    <tableColumn id="1" xr3:uid="{9085427B-7CD3-E14A-A3A4-BAD7B8C639F5}" uniqueName="1" name="ProjectID" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{CD926156-4CEF-F84F-8CE2-BF15300CF494}" uniqueName="2" name="ProjectNo" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{76A3CE70-6317-3D43-A937-C24B76E60661}" uniqueName="3" name="ProjectName" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{94CEA806-75E0-034F-8B6B-A9BDB1FE0C19}" uniqueName="4" name="StartDate" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{F832FFC2-C62F-BC42-8070-2DBCD8301255}" uniqueName="5" name="EndDate" queryTableFieldId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B98BD5EB-1F17-904E-BD12-18729BF77405}" name="Table_ExternalData_18" displayName="Table_ExternalData_18" ref="A1:E14" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E14" xr:uid="{B98BD5EB-1F17-904E-BD12-18729BF77405}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8EFAE1E1-8BBF-0747-B72D-566C4E2ADDE1}" uniqueName="1" name="MilestoneID" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{320C2608-6D06-2545-BA54-06DA19D979FC}" uniqueName="2" name="MilestoneNo" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{A7C641B0-181C-374E-92B6-CCB9EB7F9193}" uniqueName="3" name="ProjectID" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{735C8514-57D6-7C4D-A0D6-3A59A75353B1}" uniqueName="4" name="MilestoneDate" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{E2E64B8C-3EAF-024D-95DF-CA1B4148E92A}" uniqueName="5" name="MilestoneDescription" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -987,11 +918,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C58974-50CC-FC41-B6B6-873C123FABFD}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -999,6 +928,9 @@
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1017,467 +949,592 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>105</v>
+      </c>
+      <c r="E68" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" t="s">
+        <v>47</v>
+      </c>
+      <c r="G68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>106</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>124</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>51</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>125</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>52</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>126</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>127</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>128</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>129</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>133</v>
+      </c>
+      <c r="E76" t="s">
+        <v>59</v>
+      </c>
+      <c r="F76" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>134</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
+      <c r="G77" t="s">
         <v>62</v>
       </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>135</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>136</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" t="s">
+        <v>61</v>
+      </c>
+      <c r="G79" t="s">
         <v>64</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>137</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" t="s">
+        <v>61</v>
+      </c>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>138</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>139</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s">
+        <v>65</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>140</v>
+      </c>
+      <c r="E83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" t="s">
         <v>66</v>
       </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="G83" t="s">
         <v>67</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>141</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
+        <v>66</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>142</v>
+      </c>
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" t="s">
         <v>68</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G85" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>143</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" t="s">
         <v>70</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G86" t="s">
         <v>71</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>144</v>
+      </c>
+      <c r="E87" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="F87" t="s">
         <v>73</v>
       </c>
-      <c r="C26" t="s">
+      <c r="G87" t="s">
         <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>52</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>54</v>
-      </c>
-      <c r="B33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831883B6-41E8-E641-80F3-4ACB70BA2449}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1489,189 +1546,155 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1684,9 +1707,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A17E7D-B4ED-FC49-9097-0805C9DBF2E7}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1699,359 +1722,240 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
